--- a/biology/Botanique/Virus_des_anneaux_noirs_de_la_pomme_de_terre/Virus_des_anneaux_noirs_de_la_pomme_de_terre.xlsx
+++ b/biology/Botanique/Virus_des_anneaux_noirs_de_la_pomme_de_terre/Virus_des_anneaux_noirs_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus des anneaux noirs de la pomme de terre, ou PBRSV (acronyme de Potato black ringspot virus), est un phytovirus pathogène, rattaché au genre des Nepovirus et à la famille des Secoviridae. 
 Ce virus, qui cause des taches nécrotiques systémiques sur le feuillage des pommes de terre, n'a été détecté qu'au Pérou. Outre la pomme de terre, qui est son hôte principal, il admet une large gamme d'hôtes dans 11 familles de dicotylédones, dont les Amaranthaceae, Chenopodiaceae, Cucurbitaceae, Fabaceae et Solanaceae.
